--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il15-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il15-Il2rg.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.79549166666667</v>
+        <v>4.922976999999999</v>
       </c>
       <c r="H2">
-        <v>38.386475</v>
+        <v>14.768931</v>
       </c>
       <c r="I2">
-        <v>0.5145949251267348</v>
+        <v>0.2897120038548413</v>
       </c>
       <c r="J2">
-        <v>0.5145949251267349</v>
+        <v>0.2897120038548412</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.30682666666667</v>
+        <v>6.875726333333334</v>
       </c>
       <c r="N2">
-        <v>96.92048</v>
+        <v>20.627179</v>
       </c>
       <c r="O2">
-        <v>0.886587237369156</v>
+        <v>0.6245871044820662</v>
       </c>
       <c r="P2">
-        <v>0.8865872373691559</v>
+        <v>0.6245871044820662</v>
       </c>
       <c r="Q2">
-        <v>413.3817313897777</v>
+        <v>33.84904259729433</v>
       </c>
       <c r="R2">
-        <v>3720.435582508</v>
+        <v>304.641383375649</v>
       </c>
       <c r="S2">
-        <v>0.4562332930322995</v>
+        <v>0.1809503816213925</v>
       </c>
       <c r="T2">
-        <v>0.4562332930322995</v>
+        <v>0.1809503816213925</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.79549166666667</v>
+        <v>4.922976999999999</v>
       </c>
       <c r="H3">
-        <v>38.386475</v>
+        <v>14.768931</v>
       </c>
       <c r="I3">
-        <v>0.5145949251267348</v>
+        <v>0.2897120038548413</v>
       </c>
       <c r="J3">
-        <v>0.5145949251267349</v>
+        <v>0.2897120038548412</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.210869</v>
       </c>
       <c r="O3">
-        <v>0.02022408719906369</v>
+        <v>0.06694469792011602</v>
       </c>
       <c r="P3">
-        <v>0.02022408719906369</v>
+        <v>0.06694469792011602</v>
       </c>
       <c r="Q3">
-        <v>9.429718621863886</v>
+        <v>3.628019079004333</v>
       </c>
       <c r="R3">
-        <v>84.86746759677499</v>
+        <v>32.652171711039</v>
       </c>
       <c r="S3">
-        <v>0.01040721263795873</v>
+        <v>0.01939468258189384</v>
       </c>
       <c r="T3">
-        <v>0.01040721263795874</v>
+        <v>0.01939468258189384</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.79549166666667</v>
+        <v>4.922976999999999</v>
       </c>
       <c r="H4">
-        <v>38.386475</v>
+        <v>14.768931</v>
       </c>
       <c r="I4">
-        <v>0.5145949251267348</v>
+        <v>0.2897120038548413</v>
       </c>
       <c r="J4">
-        <v>0.5145949251267349</v>
+        <v>0.2897120038548412</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>10.187256</v>
       </c>
       <c r="O4">
-        <v>0.09318867543178035</v>
+        <v>0.3084681975978177</v>
       </c>
       <c r="P4">
-        <v>0.09318867543178033</v>
+        <v>0.3084681975978177</v>
       </c>
       <c r="Q4">
-        <v>43.45031641806666</v>
+        <v>16.717208993704</v>
       </c>
       <c r="R4">
-        <v>391.0528477626</v>
+        <v>150.454880943336</v>
       </c>
       <c r="S4">
-        <v>0.0479544194564766</v>
+        <v>0.08936693965155493</v>
       </c>
       <c r="T4">
-        <v>0.0479544194564766</v>
+        <v>0.0893669396515549</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>29.411688</v>
       </c>
       <c r="I5">
-        <v>0.3942822409249843</v>
+        <v>0.5769489387710858</v>
       </c>
       <c r="J5">
-        <v>0.3942822409249843</v>
+        <v>0.5769489387710858</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.30682666666667</v>
+        <v>6.875726333333334</v>
       </c>
       <c r="N5">
-        <v>96.92048</v>
+        <v>20.627179</v>
       </c>
       <c r="O5">
-        <v>0.886587237369156</v>
+        <v>0.6245871044820662</v>
       </c>
       <c r="P5">
-        <v>0.8865872373691559</v>
+        <v>0.6245871044820662</v>
       </c>
       <c r="Q5">
-        <v>316.7327687300266</v>
+        <v>67.40890589646133</v>
       </c>
       <c r="R5">
-        <v>2850.59491857024</v>
+        <v>606.6801530681521</v>
       </c>
       <c r="S5">
-        <v>0.3495656027254018</v>
+        <v>0.3603548671010334</v>
       </c>
       <c r="T5">
-        <v>0.3495656027254018</v>
+        <v>0.3603548671010334</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>29.411688</v>
       </c>
       <c r="I6">
-        <v>0.3942822409249843</v>
+        <v>0.5769489387710858</v>
       </c>
       <c r="J6">
-        <v>0.3942822409249843</v>
+        <v>0.5769489387710858</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>2.210869</v>
       </c>
       <c r="O6">
-        <v>0.02022408719906369</v>
+        <v>0.06694469792011602</v>
       </c>
       <c r="P6">
-        <v>0.02022408719906369</v>
+        <v>0.06694469792011602</v>
       </c>
       <c r="Q6">
         <v>7.225043248541332</v>
       </c>
       <c r="R6">
-        <v>65.02538923687199</v>
+        <v>65.025389236872</v>
       </c>
       <c r="S6">
-        <v>0.007973998421509119</v>
+        <v>0.03862367242136185</v>
       </c>
       <c r="T6">
-        <v>0.007973998421509121</v>
+        <v>0.03862367242136185</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>29.411688</v>
       </c>
       <c r="I7">
-        <v>0.3942822409249843</v>
+        <v>0.5769489387710858</v>
       </c>
       <c r="J7">
-        <v>0.3942822409249843</v>
+        <v>0.5769489387710858</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>10.187256</v>
       </c>
       <c r="O7">
-        <v>0.09318867543178035</v>
+        <v>0.3084681975978177</v>
       </c>
       <c r="P7">
-        <v>0.09318867543178033</v>
+        <v>0.3084681975978177</v>
       </c>
       <c r="Q7">
         <v>33.291599449792</v>
       </c>
       <c r="R7">
-        <v>299.624395048128</v>
+        <v>299.6243950481281</v>
       </c>
       <c r="S7">
-        <v>0.03674263977807338</v>
+        <v>0.1779703992486905</v>
       </c>
       <c r="T7">
-        <v>0.03674263977807338</v>
+        <v>0.1779703992486905</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>6.797355</v>
       </c>
       <c r="I8">
-        <v>0.0911228339482809</v>
+        <v>0.133339057374073</v>
       </c>
       <c r="J8">
-        <v>0.09112283394828093</v>
+        <v>0.133339057374073</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>32.30682666666667</v>
+        <v>6.875726333333334</v>
       </c>
       <c r="N8">
-        <v>96.92048</v>
+        <v>20.627179</v>
       </c>
       <c r="O8">
-        <v>0.886587237369156</v>
+        <v>0.6245871044820662</v>
       </c>
       <c r="P8">
-        <v>0.8865872373691559</v>
+        <v>0.6245871044820662</v>
       </c>
       <c r="Q8">
-        <v>73.20032325893332</v>
+        <v>15.57891759017167</v>
       </c>
       <c r="R8">
-        <v>658.8029093304</v>
+        <v>140.210258311545</v>
       </c>
       <c r="S8">
-        <v>0.08078834161145471</v>
+        <v>0.08328185575964034</v>
       </c>
       <c r="T8">
-        <v>0.08078834161145472</v>
+        <v>0.08328185575964034</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>6.797355</v>
       </c>
       <c r="I9">
-        <v>0.0911228339482809</v>
+        <v>0.133339057374073</v>
       </c>
       <c r="J9">
-        <v>0.09112283394828093</v>
+        <v>0.133339057374073</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>2.210869</v>
       </c>
       <c r="O9">
-        <v>0.02022408719906369</v>
+        <v>0.06694469792011602</v>
       </c>
       <c r="P9">
-        <v>0.02022408719906369</v>
+        <v>0.06694469792011602</v>
       </c>
       <c r="Q9">
-        <v>1.669784605721666</v>
+        <v>1.669784605721667</v>
       </c>
       <c r="R9">
         <v>15.028061451495</v>
       </c>
       <c r="S9">
-        <v>0.001842876139595834</v>
+        <v>0.008926342916860334</v>
       </c>
       <c r="T9">
-        <v>0.001842876139595834</v>
+        <v>0.008926342916860334</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>6.797355</v>
       </c>
       <c r="I10">
-        <v>0.0911228339482809</v>
+        <v>0.133339057374073</v>
       </c>
       <c r="J10">
-        <v>0.09112283394828093</v>
+        <v>0.133339057374073</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>10.187256</v>
       </c>
       <c r="O10">
-        <v>0.09318867543178035</v>
+        <v>0.3084681975978177</v>
       </c>
       <c r="P10">
-        <v>0.09318867543178033</v>
+        <v>0.3084681975978177</v>
       </c>
       <c r="Q10">
-        <v>7.694043945319999</v>
+        <v>7.694043945320002</v>
       </c>
       <c r="R10">
-        <v>69.24639550788</v>
+        <v>69.24639550788001</v>
       </c>
       <c r="S10">
-        <v>0.008491616197230364</v>
+        <v>0.0411308586975723</v>
       </c>
       <c r="T10">
-        <v>0.008491616197230366</v>
+        <v>0.0411308586975723</v>
       </c>
     </row>
   </sheetData>
